--- a/data/trans_dic/P43-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P43-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P43-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P43-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -676,42 +676,42 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,74%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,39%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,56%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,98%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,74%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,39%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,56%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,98%</t>
         </is>
       </c>
     </row>
@@ -744,42 +744,42 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>3,92; 8,14</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,46</t>
+          <t>3,96; 9,17</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>3,67; 7,9</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,08</t>
+          <t>4,54; 13,69</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>3,92; 8,14</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,46</t>
+          <t>3,96; 9,17</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>3,67; 7,9</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,08</t>
+          <t>4,54; 13,69</t>
         </is>
       </c>
     </row>
@@ -816,42 +816,42 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,05%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,2%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,41%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,86%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,05%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,2%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,41%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,86%</t>
         </is>
       </c>
     </row>
@@ -884,42 +884,42 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>10,63; 16,34</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>10,85; 16,34</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>10,79; 16,2</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>11,22; 19,77</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>10,63; 16,34</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>10,85; 16,34</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>10,79; 16,2</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>11,22; 19,77</t>
         </is>
       </c>
     </row>
@@ -956,42 +956,42 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,95%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,3%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,36%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,65%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,95%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,3%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,36%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,65%</t>
         </is>
       </c>
     </row>
@@ -1024,42 +1024,42 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>30,45; 37,59</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>29,73; 36,99</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>30,63; 38,09</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>29,81; 37,96</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>30,45; 37,59</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>29,73; 36,99</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>30,63; 38,09</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>29,81; 37,96</t>
         </is>
       </c>
     </row>
@@ -1096,42 +1096,42 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,89%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,73%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,05%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,95%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,89%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,73%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,05%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,95%</t>
         </is>
       </c>
     </row>
@@ -1164,42 +1164,42 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>57,19; 66,15</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>62,69; 70,71</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>62,16; 69,57</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>57,26; 65,83</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>57,19; 66,15</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>62,69; 70,71</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>62,16; 69,57</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>57,26; 65,83</t>
         </is>
       </c>
     </row>
@@ -1236,42 +1236,42 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,64%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,54%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>90,34%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>79,71%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,64%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,54%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>90,34%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>79,71%</t>
         </is>
       </c>
     </row>
@@ -1304,42 +1304,42 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>71,61; 79,8</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>88,52; 94,03</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>87,21; 92,83</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>76,26; 82,4</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>71,61; 79,8</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>88,52; 94,03</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>87,21; 92,83</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>76,26; 82,4</t>
         </is>
       </c>
     </row>
@@ -1376,42 +1376,42 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,53%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>68,86%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,67%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>79,59%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,53%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>68,86%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,67%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>79,59%</t>
         </is>
       </c>
     </row>
@@ -1444,42 +1444,42 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>43,0; 50,38</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>65,09; 72,09</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>69,0; 76,17</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>75,88; 87,68</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>43,0; 50,38</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>65,09; 72,09</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>69,0; 76,17</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>75,88; 87,68</t>
         </is>
       </c>
     </row>
@@ -1516,42 +1516,42 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,91%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>47,14%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,93%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>54,4%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,91%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>47,14%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,93%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>54,4%</t>
         </is>
       </c>
     </row>
@@ -1584,42 +1584,42 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>36,16; 39,59</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>45,56; 48,86</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>48,24; 51,71</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,05</t>
+          <t>51,72; 60,6</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>36,16; 39,59</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>45,56; 48,86</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>48,24; 51,71</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,05</t>
+          <t>51,72; 60,6</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P43-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P43-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>7,98%</t>
+          <t>8,07%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>7,98%</t>
+          <t>8,07%</t>
         </is>
       </c>
     </row>
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,54; 13,69</t>
+          <t>4,59; 13,9</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>4,54; 13,69</t>
+          <t>4,59; 13,9</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>14,86%</t>
+          <t>13,13%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>14,86%</t>
+          <t>13,13%</t>
         </is>
       </c>
     </row>
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,22; 19,77</t>
+          <t>7,25; 18,09</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>11,22; 19,77</t>
+          <t>7,25; 18,09</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>33,65%</t>
+          <t>33,98%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>33,65%</t>
+          <t>33,98%</t>
         </is>
       </c>
     </row>
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>29,81; 37,96</t>
+          <t>30,14; 38,31</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>29,81; 37,96</t>
+          <t>30,14; 38,31</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>61,95%</t>
+          <t>64,63%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>61,95%</t>
+          <t>64,63%</t>
         </is>
       </c>
     </row>
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>57,26; 65,83</t>
+          <t>59,88; 71,48</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>57,26; 65,83</t>
+          <t>59,88; 71,48</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>79,71%</t>
+          <t>80,33%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>79,71%</t>
+          <t>80,33%</t>
         </is>
       </c>
     </row>
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>76,26; 82,4</t>
+          <t>76,94; 82,98</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>76,26; 82,4</t>
+          <t>76,94; 82,98</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1376,42 +1376,42 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>46,53%</t>
+          <t>63,43%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>68,86%</t>
+          <t>85,31%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>72,67%</t>
+          <t>86,01%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>79,59%</t>
+          <t>90,47%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>46,53%</t>
+          <t>63,43%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>68,86%</t>
+          <t>85,31%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>72,67%</t>
+          <t>86,01%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>79,59%</t>
+          <t>90,47%</t>
         </is>
       </c>
     </row>
@@ -1444,49 +1444,49 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>43,0; 50,38</t>
+          <t>58,57; 68,49</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>65,09; 72,09</t>
+          <t>80,61; 88,84</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>69,0; 76,17</t>
+          <t>82,12; 89,29</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>75,88; 87,68</t>
+          <t>83,29; 96,63</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>43,0; 50,38</t>
+          <t>58,57; 68,49</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>65,09; 72,09</t>
+          <t>80,61; 88,84</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>69,0; 76,17</t>
+          <t>82,12; 89,29</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>75,88; 87,68</t>
+          <t>83,29; 96,63</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1516,42 +1516,42 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>37,91%</t>
+          <t>29,05%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>47,14%</t>
+          <t>53,8%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>49,93%</t>
+          <t>59,98%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>54,4%</t>
+          <t>70,39%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>37,91%</t>
+          <t>29,05%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>47,14%</t>
+          <t>53,8%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>49,93%</t>
+          <t>59,98%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>54,4%</t>
+          <t>70,39%</t>
         </is>
       </c>
     </row>
@@ -1584,54 +1584,194 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
+          <t>23,91; 34,57</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>48,38; 59,01</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>54,29; 65,7</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>66,81; 73,66</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>23,91; 34,57</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>48,38; 59,01</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>54,29; 65,7</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>66,81; 73,66</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>37,91%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>47,14%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>49,93%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>55,92%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>37,91%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>47,14%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>49,93%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>55,92%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
           <t>36,16; 39,59</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>45,56; 48,86</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>48,24; 51,71</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>51,72; 60,6</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>51,1; 65,8</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>36,16; 39,59</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>45,56; 48,86</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>48,24; 51,71</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>51,72; 60,6</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>51,1; 65,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P43-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P43-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -744,42 +745,42 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,92; 8,14</t>
+          <t>4,09; 8,13</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,96; 9,17</t>
+          <t>3,95; 8,81</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,67; 7,9</t>
+          <t>3,56; 8,3</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,59; 13,9</t>
+          <t>4,4; 13,44</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,92; 8,14</t>
+          <t>4,09; 8,13</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3,96; 9,17</t>
+          <t>3,95; 8,81</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>3,67; 7,9</t>
+          <t>3,56; 8,3</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>4,59; 13,9</t>
+          <t>4,4; 13,44</t>
         </is>
       </c>
     </row>
@@ -884,42 +885,42 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>10,63; 16,34</t>
+          <t>10,33; 16,1</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,85; 16,34</t>
+          <t>10,42; 15,93</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>10,79; 16,2</t>
+          <t>10,89; 16,46</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>7,25; 18,09</t>
+          <t>7,22; 17,92</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>10,63; 16,34</t>
+          <t>10,33; 16,1</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>10,85; 16,34</t>
+          <t>10,42; 15,93</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>10,79; 16,2</t>
+          <t>10,89; 16,46</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,25; 18,09</t>
+          <t>7,22; 17,92</t>
         </is>
       </c>
     </row>
@@ -1024,42 +1025,42 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>30,45; 37,59</t>
+          <t>30,51; 37,77</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>29,73; 36,99</t>
+          <t>29,93; 37,26</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>30,63; 38,09</t>
+          <t>30,96; 38,3</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>30,14; 38,31</t>
+          <t>29,54; 37,99</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>30,45; 37,59</t>
+          <t>30,51; 37,77</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>29,73; 36,99</t>
+          <t>29,93; 37,26</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>30,63; 38,09</t>
+          <t>30,96; 38,3</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>30,14; 38,31</t>
+          <t>29,54; 37,99</t>
         </is>
       </c>
     </row>
@@ -1164,42 +1165,42 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>57,19; 66,15</t>
+          <t>57,87; 66,16</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>62,69; 70,71</t>
+          <t>62,78; 70,81</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>62,16; 69,57</t>
+          <t>62,36; 69,78</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>59,88; 71,48</t>
+          <t>60,34; 71,65</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>57,19; 66,15</t>
+          <t>57,87; 66,16</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>62,69; 70,71</t>
+          <t>62,78; 70,81</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>62,16; 69,57</t>
+          <t>62,36; 69,78</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>59,88; 71,48</t>
+          <t>60,34; 71,65</t>
         </is>
       </c>
     </row>
@@ -1304,42 +1305,42 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>71,61; 79,8</t>
+          <t>71,08; 79,67</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>88,52; 94,03</t>
+          <t>88,42; 93,92</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>87,21; 92,83</t>
+          <t>87,03; 92,69</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>76,94; 82,98</t>
+          <t>77,43; 83,32</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>71,61; 79,8</t>
+          <t>71,08; 79,67</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>88,52; 94,03</t>
+          <t>88,42; 93,92</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>87,21; 92,83</t>
+          <t>87,03; 92,69</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>76,94; 82,98</t>
+          <t>77,43; 83,32</t>
         </is>
       </c>
     </row>
@@ -1444,42 +1445,42 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>58,57; 68,49</t>
+          <t>58,19; 68,53</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>80,61; 88,84</t>
+          <t>81,28; 88,86</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>82,12; 89,29</t>
+          <t>82,5; 89,29</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>83,29; 96,63</t>
+          <t>83,51; 96,85</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>58,57; 68,49</t>
+          <t>58,19; 68,53</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>80,61; 88,84</t>
+          <t>81,28; 88,86</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>82,12; 89,29</t>
+          <t>82,5; 89,29</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>83,29; 96,63</t>
+          <t>83,51; 96,85</t>
         </is>
       </c>
     </row>
@@ -1584,42 +1585,42 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>23,91; 34,57</t>
+          <t>24,23; 34,45</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>48,38; 59,01</t>
+          <t>48,43; 59,39</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>54,29; 65,7</t>
+          <t>53,79; 65,45</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>66,81; 73,66</t>
+          <t>66,98; 73,71</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>23,91; 34,57</t>
+          <t>24,23; 34,45</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>48,38; 59,01</t>
+          <t>48,43; 59,39</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>54,29; 65,7</t>
+          <t>53,79; 65,45</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>66,81; 73,66</t>
+          <t>66,98; 73,71</t>
         </is>
       </c>
     </row>
@@ -1724,42 +1725,42 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>36,16; 39,59</t>
+          <t>36,19; 39,57</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>45,56; 48,86</t>
+          <t>45,44; 48,92</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>48,24; 51,71</t>
+          <t>48,16; 51,62</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>51,1; 65,8</t>
+          <t>51,38; 66,52</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>36,16; 39,59</t>
+          <t>36,19; 39,57</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>45,56; 48,86</t>
+          <t>45,44; 48,92</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>48,24; 51,71</t>
+          <t>48,16; 51,62</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>51,1; 65,8</t>
+          <t>51,38; 66,52</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que le han realizado alguna vez una mamografía por prescripción de algún especialista</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>26696</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>27387</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>21550</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>21297</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>26696</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>27387</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>21550</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>21297</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>19026; 37775</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>16926; 37739</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>13782; 32195</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>11611; 35449</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>19026; 37775</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>16926; 37739</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>13782; 32195</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>11611; 35449</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>81512</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>79982</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>75300</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>51913</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>81512</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>79982</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>75300</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>51913</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>64505; 100576</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>63119; 96521</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>61142; 92410</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>28550; 70824</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>64505; 100576</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>63119; 96521</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>61142; 92410</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>28550; 70824</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>233845</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>235383</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>226055</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>126206</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>233845</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>235383</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>226055</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>126206</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>210111; 260155</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>211586; 263375</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>203709; 251979</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>109701; 141079</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>210111; 260155</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>211586; 263375</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>203709; 251979</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>109701; 141079</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>312</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>358</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>397</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>501</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>312</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>358</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>397</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>501</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>317458</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>410514</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>427426</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>326992</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>317458</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>410514</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>427426</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>326992</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>296836; 339375</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>386184; 435566</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>403526; 451511</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>305300; 362520</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>296836; 339375</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>386184; 435566</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>403526; 451511</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>305300; 362520</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>297</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>370</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>390</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>599</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>297</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>370</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>390</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>599</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>303417</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>408088</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>446851</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>322252</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>303417</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>408088</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>446851</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>322252</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>285126; 319562</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>394208; 418736</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>430455; 458454</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>310612; 334256</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>285126; 319562</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>394208; 418736</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>430455; 458454</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>310612; 334256</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>294</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>302</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>561</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>294</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>302</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>561</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>215164</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>299497</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>323145</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>476092</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>215164</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>299497</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>323145</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>476092</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>197362; 232455</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>285355; 311949</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>309945; 335445</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>439496; 509652</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>197362; 232455</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>285355; 311949</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>309945; 335445</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>439496; 509652</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>95351</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>206399</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>236972</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>258386</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>95351</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>206399</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>236972</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>258386</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>79520; 113078</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>185780; 227810</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>212549; 258599</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>245839; 270560</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>79520; 113078</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>185780; 227810</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>212549; 258599</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>245839; 270560</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>1252</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>1523</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>1595</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>2467</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>1252</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>1523</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>1595</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>2467</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>1273441</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>1667249</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>1757300</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>1583137</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>1273441</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>1667249</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>1757300</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>1583137</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>1215683; 1329323</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>1606844; 1729955</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>1694936; 1816789</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>1454515; 1883137</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>1215683; 1329323</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>1606844; 1729955</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>1694936; 1816789</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>1454515; 1883137</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>